--- a/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8248368F-DBEA-4677-8732-FC262D5C5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27B3DB9-FB8F-48F5-88B7-F8685071E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D788B21-B82F-4336-9E1C-4B9739CBF994}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFD8B9DC-967A-41EB-A31D-4EEDBF27D765}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="528">
-  <si>
-    <t>Población según la frecuencia de consumición de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="524">
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,28 +76,28 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -106,1522 +106,1510 @@
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2015 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de embutidos y fiambres en 2015 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807182FD-134A-475F-89AF-275521A09AB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2101B5E-CBA7-4288-BCA4-EFA0C5FA811E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2244,13 +2232,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>364</v>
@@ -2259,13 +2247,13 @@
         <v>360647</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>491</v>
@@ -2274,13 +2262,13 @@
         <v>500202</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>855</v>
@@ -2289,19 +2277,19 @@
         <v>860849</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>301</v>
@@ -2310,13 +2298,13 @@
         <v>299890</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>306</v>
@@ -2325,13 +2313,13 @@
         <v>310968</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>607</v>
@@ -2340,19 +2328,19 @@
         <v>610858</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>150</v>
@@ -2361,13 +2349,13 @@
         <v>147428</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>134</v>
@@ -2376,13 +2364,13 @@
         <v>133596</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -2391,13 +2379,13 @@
         <v>281024</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2400,13 @@
         <v>1029176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1287</v>
@@ -2427,13 +2415,13 @@
         <v>1312018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2322</v>
@@ -2442,18 +2430,18 @@
         <v>2341194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2465,13 +2453,13 @@
         <v>65435</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -2480,13 +2468,13 @@
         <v>113129</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>169</v>
@@ -2495,13 +2483,13 @@
         <v>178564</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2504,13 @@
         <v>152754</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
@@ -2531,13 +2519,13 @@
         <v>257694</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>400</v>
@@ -2546,19 +2534,19 @@
         <v>410448</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>456</v>
@@ -2567,13 +2555,13 @@
         <v>470048</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>654</v>
@@ -2582,13 +2570,13 @@
         <v>673374</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1110</v>
@@ -2597,19 +2585,19 @@
         <v>1143422</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>509</v>
@@ -2618,13 +2606,13 @@
         <v>529149</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>384</v>
@@ -2633,7 +2621,7 @@
         <v>385533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>92</v>
@@ -2660,7 +2648,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>468</v>
@@ -2720,13 +2708,13 @@
         <v>1688371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1548</v>
@@ -2735,13 +2723,13 @@
         <v>1580900</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3193</v>
@@ -2750,13 +2738,13 @@
         <v>3269271</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2854,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>185</v>
@@ -2917,7 +2905,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>166</v>
@@ -2968,7 +2956,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>73</v>
@@ -3028,13 +3016,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3043,13 +3031,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3058,13 +3046,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3162,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>1005</v>
@@ -3225,7 +3213,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>976</v>
@@ -3276,7 +3264,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>691</v>
@@ -3300,13 +3288,13 @@
         <v>321716</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>1014</v>
@@ -3315,13 +3303,13 @@
         <v>1012493</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3324,13 @@
         <v>3268955</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3287</v>
@@ -3351,33 +3339,33 @@
         <v>3369330</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6494</v>
       </c>
       <c r="N27" s="7">
-        <v>6638284</v>
+        <v>6638285</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0024B103-2577-4257-869F-AE4805DA7FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259F505D-C4BC-4396-AEC6-100AFAA87F09}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3413,7 +3401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3520,13 +3508,13 @@
         <v>95809</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -3535,13 +3523,13 @@
         <v>203826</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -3550,13 +3538,13 @@
         <v>299634</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3559,13 @@
         <v>268921</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -3586,13 +3574,13 @@
         <v>420585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>645</v>
@@ -3601,19 +3589,19 @@
         <v>689506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>271</v>
@@ -3622,13 +3610,13 @@
         <v>286189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>366</v>
@@ -3637,13 +3625,13 @@
         <v>395915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>637</v>
@@ -3652,19 +3640,19 @@
         <v>682104</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>198</v>
@@ -3673,13 +3661,13 @@
         <v>215458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>187</v>
@@ -3688,13 +3676,13 @@
         <v>204159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>385</v>
@@ -3703,19 +3691,19 @@
         <v>419617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>93</v>
@@ -3724,13 +3712,13 @@
         <v>96721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -3739,13 +3727,13 @@
         <v>99770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -3754,13 +3742,13 @@
         <v>196492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3763,13 @@
         <v>963098</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1235</v>
@@ -3790,13 +3778,13 @@
         <v>1324255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2133</v>
@@ -3805,18 +3793,18 @@
         <v>2287353</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3828,13 +3816,13 @@
         <v>115582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -3843,13 +3831,13 @@
         <v>152697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -3858,13 +3846,13 @@
         <v>268279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>323444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -3894,13 +3882,13 @@
         <v>421004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -3909,19 +3897,19 @@
         <v>744448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>569</v>
@@ -3930,13 +3918,13 @@
         <v>595111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>525</v>
@@ -3945,13 +3933,13 @@
         <v>572063</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>1094</v>
@@ -3960,19 +3948,19 @@
         <v>1167174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>548</v>
@@ -3981,13 +3969,13 @@
         <v>574620</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>388</v>
@@ -3996,13 +3984,13 @@
         <v>408069</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>936</v>
@@ -4011,19 +3999,19 @@
         <v>982689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>332</v>
@@ -4032,13 +4020,13 @@
         <v>349949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -4047,13 +4035,13 @@
         <v>196860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>518</v>
@@ -4062,13 +4050,13 @@
         <v>546809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4071,13 @@
         <v>1958706</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1630</v>
@@ -4098,13 +4086,13 @@
         <v>1750694</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3481</v>
@@ -4113,13 +4101,13 @@
         <v>3709400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4124,13 @@
         <v>28494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4151,13 +4139,13 @@
         <v>40989</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4166,13 +4154,13 @@
         <v>69483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4175,13 @@
         <v>105384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -4202,13 +4190,13 @@
         <v>118382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -4217,19 +4205,19 @@
         <v>223766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>140</v>
@@ -4238,13 +4226,13 @@
         <v>151205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>151</v>
@@ -4253,13 +4241,13 @@
         <v>165291</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>291</v>
@@ -4268,19 +4256,19 @@
         <v>316497</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>130</v>
@@ -4289,13 +4277,13 @@
         <v>141785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -4304,13 +4292,13 @@
         <v>88180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -4319,19 +4307,19 @@
         <v>229965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>50</v>
@@ -4340,13 +4328,13 @@
         <v>52367</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -4355,13 +4343,13 @@
         <v>42683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -4370,13 +4358,13 @@
         <v>95050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4379,13 @@
         <v>479236</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>409</v>
@@ -4406,13 +4394,13 @@
         <v>455526</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>845</v>
@@ -4421,13 +4409,13 @@
         <v>934762</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4432,13 @@
         <v>239885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>362</v>
@@ -4459,13 +4447,13 @@
         <v>397512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>582</v>
@@ -4474,13 +4462,13 @@
         <v>637397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4483,13 @@
         <v>697749</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>898</v>
@@ -4510,13 +4498,13 @@
         <v>959971</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -4525,19 +4513,19 @@
         <v>1657721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>980</v>
@@ -4546,13 +4534,13 @@
         <v>1032505</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>1042</v>
@@ -4561,13 +4549,13 @@
         <v>1133269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>2022</v>
@@ -4576,19 +4564,19 @@
         <v>2165775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>214</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>876</v>
@@ -4597,13 +4585,13 @@
         <v>931863</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>656</v>
@@ -4612,13 +4600,13 @@
         <v>700408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>356</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>1532</v>
@@ -4630,16 +4618,16 @@
         <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>475</v>
@@ -4648,13 +4636,13 @@
         <v>499038</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>316</v>
@@ -4663,13 +4651,13 @@
         <v>339314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>791</v>
@@ -4678,13 +4666,13 @@
         <v>838351</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4687,13 @@
         <v>3401040</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3274</v>
@@ -4714,13 +4702,13 @@
         <v>3530475</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6459</v>
@@ -4729,18 +4717,18 @@
         <v>6931515</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB5000E-2C66-4B91-A01C-B4ADBCE67E4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB5448F-6DC4-4785-998F-92F3783080FE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4776,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4883,13 +4871,13 @@
         <v>74916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -4898,13 +4886,13 @@
         <v>129523</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>193</v>
@@ -4913,13 +4901,13 @@
         <v>204439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4922,13 @@
         <v>147891</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -4949,13 +4937,13 @@
         <v>263605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>386</v>
@@ -4964,19 +4952,19 @@
         <v>411496</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>279</v>
@@ -4985,13 +4973,13 @@
         <v>275830</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>320</v>
@@ -5000,13 +4988,13 @@
         <v>355442</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>599</v>
@@ -5015,19 +5003,19 @@
         <v>631272</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>177</v>
@@ -5036,13 +5024,13 @@
         <v>175519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -5051,13 +5039,13 @@
         <v>194083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M7" s="7">
         <v>351</v>
@@ -5066,19 +5054,19 @@
         <v>369603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>76</v>
@@ -5087,13 +5075,13 @@
         <v>78384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -5102,13 +5090,13 @@
         <v>48990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -5117,13 +5105,13 @@
         <v>127374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5126,13 @@
         <v>752540</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>889</v>
@@ -5153,13 +5141,13 @@
         <v>991644</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1649</v>
@@ -5168,18 +5156,18 @@
         <v>1744184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5191,13 +5179,13 @@
         <v>99330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -5206,13 +5194,13 @@
         <v>148735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>226</v>
@@ -5221,13 +5209,13 @@
         <v>248065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5230,13 @@
         <v>309611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>420</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H11" s="7">
         <v>386</v>
@@ -5257,34 +5245,34 @@
         <v>405033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
       </c>
       <c r="N11" s="7">
-        <v>714645</v>
+        <v>714644</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>745</v>
@@ -5293,13 +5281,13 @@
         <v>794682</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>736</v>
@@ -5308,13 +5296,13 @@
         <v>765955</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M12" s="7">
         <v>1481</v>
@@ -5323,19 +5311,19 @@
         <v>1560637</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>574</v>
@@ -5344,13 +5332,13 @@
         <v>607415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>479</v>
@@ -5359,13 +5347,13 @@
         <v>497888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>1053</v>
@@ -5374,19 +5362,19 @@
         <v>1105303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>245</v>
@@ -5395,13 +5383,13 @@
         <v>258836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>163</v>
@@ -5410,13 +5398,13 @@
         <v>164144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
@@ -5425,13 +5413,13 @@
         <v>422980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5434,13 @@
         <v>2069875</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1903</v>
@@ -5461,28 +5449,28 @@
         <v>1981755</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3849</v>
       </c>
       <c r="N15" s="7">
-        <v>4051630</v>
+        <v>4051629</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5487,13 @@
         <v>42862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5514,13 +5502,13 @@
         <v>43843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -5529,13 +5517,13 @@
         <v>86706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,10 +5541,10 @@
         <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -5565,13 +5553,13 @@
         <v>119287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M17" s="7">
         <v>199</v>
@@ -5580,19 +5568,19 @@
         <v>211998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>211</v>
@@ -5601,13 +5589,13 @@
         <v>229187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>207</v>
@@ -5616,13 +5604,13 @@
         <v>211338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -5631,19 +5619,19 @@
         <v>440525</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>130</v>
@@ -5652,13 +5640,13 @@
         <v>138050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -5667,13 +5655,13 @@
         <v>125094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -5682,19 +5670,19 @@
         <v>263144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>35</v>
@@ -5703,13 +5691,13 @@
         <v>41027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -5718,13 +5706,13 @@
         <v>48594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -5733,13 +5721,13 @@
         <v>89621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5742,13 @@
         <v>543838</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -5769,13 +5757,13 @@
         <v>548156</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
@@ -5784,13 +5772,13 @@
         <v>1091994</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5795,13 @@
         <v>217108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>296</v>
@@ -5822,13 +5810,13 @@
         <v>322101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
@@ -5837,13 +5825,13 @@
         <v>539209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5846,13 @@
         <v>550214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H23" s="7">
         <v>734</v>
@@ -5873,13 +5861,13 @@
         <v>787925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>1266</v>
@@ -5888,19 +5876,19 @@
         <v>1338139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>1235</v>
@@ -5909,13 +5897,13 @@
         <v>1299700</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H24" s="7">
         <v>1263</v>
@@ -5924,13 +5912,13 @@
         <v>1332734</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>391</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>2498</v>
@@ -5939,19 +5927,19 @@
         <v>2632434</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>881</v>
@@ -5960,13 +5948,13 @@
         <v>920984</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>770</v>
@@ -5975,13 +5963,13 @@
         <v>817065</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M25" s="7">
         <v>1651</v>
@@ -5990,19 +5978,19 @@
         <v>1738049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>356</v>
@@ -6011,13 +5999,13 @@
         <v>378247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -6026,13 +6014,13 @@
         <v>261728</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>610</v>
@@ -6041,13 +6029,13 @@
         <v>639976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6050,13 @@
         <v>3366253</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3317</v>
@@ -6077,13 +6065,13 @@
         <v>3521554</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6521</v>
@@ -6092,18 +6080,18 @@
         <v>6887807</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27B3DB9-FB8F-48F5-88B7-F8685071E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BF4864-6FD4-4EE8-B550-468EB51EA27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFD8B9DC-967A-41EB-A31D-4EEDBF27D765}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4019D68-A2D2-49CC-B4E2-48F69BF36FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,28 +76,28 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -106,1510 +106,1510 @@
     <t>14,82%</t>
   </si>
   <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>39,54%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2015 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>8,65%</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2101B5E-CBA7-4288-BCA4-EFA0C5FA811E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1A3C5-1821-4168-B1A2-C02706DC0AA7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2232,13 +2232,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>364</v>
@@ -2247,13 +2247,13 @@
         <v>360647</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>491</v>
@@ -2262,13 +2262,13 @@
         <v>500202</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>855</v>
@@ -2277,19 +2277,19 @@
         <v>860849</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>301</v>
@@ -2298,13 +2298,13 @@
         <v>299890</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>306</v>
@@ -2313,13 +2313,13 @@
         <v>310968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>607</v>
@@ -2328,19 +2328,19 @@
         <v>610858</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>150</v>
@@ -2349,13 +2349,13 @@
         <v>147428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>134</v>
@@ -2364,13 +2364,13 @@
         <v>133596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -2379,13 +2379,13 @@
         <v>281024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2400,13 @@
         <v>1029176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1287</v>
@@ -2415,13 +2415,13 @@
         <v>1312018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2322</v>
@@ -2430,18 +2430,18 @@
         <v>2341194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2453,13 +2453,13 @@
         <v>65435</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -2468,13 +2468,13 @@
         <v>113129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>169</v>
@@ -2483,13 +2483,13 @@
         <v>178564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2504,13 @@
         <v>152754</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>248</v>
@@ -2519,13 +2519,13 @@
         <v>257694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>400</v>
@@ -2534,19 +2534,19 @@
         <v>410448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>456</v>
@@ -2555,13 +2555,13 @@
         <v>470048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>654</v>
@@ -2570,13 +2570,13 @@
         <v>673374</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1110</v>
@@ -2585,19 +2585,19 @@
         <v>1143422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>509</v>
@@ -2606,13 +2606,13 @@
         <v>529149</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>384</v>
@@ -2621,13 +2621,13 @@
         <v>385533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>893</v>
@@ -2636,19 +2636,19 @@
         <v>914682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>468</v>
@@ -2657,13 +2657,13 @@
         <v>470985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -2672,13 +2672,13 @@
         <v>151170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>621</v>
@@ -2687,13 +2687,13 @@
         <v>622155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2708,13 @@
         <v>1688371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1548</v>
@@ -2723,13 +2723,13 @@
         <v>1580900</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3193</v>
@@ -2738,18 +2738,18 @@
         <v>3269271</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2761,13 +2761,13 @@
         <v>37561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2776,13 +2776,13 @@
         <v>37660</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -2791,13 +2791,13 @@
         <v>75220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2812,13 @@
         <v>76692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -2827,13 +2827,13 @@
         <v>75166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -2842,19 +2842,19 @@
         <v>151858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>185</v>
@@ -2863,13 +2863,13 @@
         <v>192890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>202</v>
@@ -2878,13 +2878,13 @@
         <v>214451</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
@@ -2893,19 +2893,19 @@
         <v>407341</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>166</v>
@@ -2914,13 +2914,13 @@
         <v>171902</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -2929,13 +2929,13 @@
         <v>112185</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>273</v>
@@ -2944,19 +2944,19 @@
         <v>284087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>73</v>
@@ -2965,13 +2965,13 @@
         <v>72364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -2980,13 +2980,13 @@
         <v>36950</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -2995,13 +2995,13 @@
         <v>109314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3016,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3031,13 +3031,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3046,13 +3046,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3069,13 @@
         <v>171703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -3084,10 +3084,10 @@
         <v>276358</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>157</v>
@@ -3162,13 +3162,13 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1005</v>
       </c>
       <c r="D24" s="7">
-        <v>1023585</v>
+        <v>1023584</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>170</v>
@@ -3213,7 +3213,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>976</v>
@@ -3252,19 +3252,19 @@
         <v>1809627</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>691</v>
@@ -3273,13 +3273,13 @@
         <v>690777</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>323</v>
@@ -3288,7 +3288,7 @@
         <v>321716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>191</v>
@@ -3321,16 +3321,16 @@
         <v>3207</v>
       </c>
       <c r="D27" s="7">
-        <v>3268955</v>
+        <v>3268954</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3287</v>
@@ -3339,13 +3339,13 @@
         <v>3369330</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6494</v>
@@ -3354,13 +3354,13 @@
         <v>6638285</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259F505D-C4BC-4396-AEC6-100AFAA87F09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429F361F-4708-4443-A5D2-CE886EC822C0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3511,10 +3511,10 @@
         <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -3523,13 +3523,13 @@
         <v>203826</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -3538,13 +3538,13 @@
         <v>299634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3559,13 @@
         <v>268921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -3574,13 +3574,13 @@
         <v>420585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>645</v>
@@ -3589,19 +3589,19 @@
         <v>689506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>271</v>
@@ -3610,13 +3610,13 @@
         <v>286189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>366</v>
@@ -3625,13 +3625,13 @@
         <v>395915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>637</v>
@@ -3640,19 +3640,19 @@
         <v>682104</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>198</v>
@@ -3661,13 +3661,13 @@
         <v>215458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>187</v>
@@ -3676,13 +3676,13 @@
         <v>204159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>385</v>
@@ -3691,19 +3691,19 @@
         <v>419617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>93</v>
@@ -3712,13 +3712,13 @@
         <v>96721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -3727,13 +3727,13 @@
         <v>99770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -3742,13 +3742,13 @@
         <v>196492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3763,13 @@
         <v>963098</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1235</v>
@@ -3778,13 +3778,13 @@
         <v>1324255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2133</v>
@@ -3793,18 +3793,18 @@
         <v>2287353</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3816,13 +3816,13 @@
         <v>115582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -3831,13 +3831,13 @@
         <v>152697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -3846,13 +3846,13 @@
         <v>268279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3867,13 @@
         <v>323444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -3882,13 +3882,13 @@
         <v>421004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -3897,19 +3897,19 @@
         <v>744448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>569</v>
@@ -3918,13 +3918,13 @@
         <v>595111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>525</v>
@@ -3933,13 +3933,13 @@
         <v>572063</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>1094</v>
@@ -3948,19 +3948,19 @@
         <v>1167174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>548</v>
@@ -3969,13 +3969,13 @@
         <v>574620</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>388</v>
@@ -3984,13 +3984,13 @@
         <v>408069</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>936</v>
@@ -3999,19 +3999,19 @@
         <v>982689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>332</v>
@@ -4020,13 +4020,13 @@
         <v>349949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -4035,13 +4035,13 @@
         <v>196860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>518</v>
@@ -4050,13 +4050,13 @@
         <v>546809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4071,13 @@
         <v>1958706</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1630</v>
@@ -4086,13 +4086,13 @@
         <v>1750694</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3481</v>
@@ -4101,18 +4101,18 @@
         <v>3709400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4124,13 +4124,13 @@
         <v>28494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4139,13 +4139,13 @@
         <v>40989</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4154,13 +4154,13 @@
         <v>69483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4175,13 @@
         <v>105384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -4190,13 +4190,13 @@
         <v>118382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -4205,19 +4205,19 @@
         <v>223766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>140</v>
@@ -4226,13 +4226,13 @@
         <v>151205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>151</v>
@@ -4241,13 +4241,13 @@
         <v>165291</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>291</v>
@@ -4256,19 +4256,19 @@
         <v>316497</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>130</v>
@@ -4277,13 +4277,13 @@
         <v>141785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -4292,13 +4292,13 @@
         <v>88180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -4307,19 +4307,19 @@
         <v>229965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>50</v>
@@ -4328,13 +4328,13 @@
         <v>52367</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -4343,13 +4343,13 @@
         <v>42683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -4358,13 +4358,13 @@
         <v>95050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4379,13 @@
         <v>479236</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>409</v>
@@ -4394,13 +4394,13 @@
         <v>455526</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>845</v>
@@ -4409,13 +4409,13 @@
         <v>934762</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4432,13 @@
         <v>239885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>362</v>
@@ -4447,13 +4447,13 @@
         <v>397512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>582</v>
@@ -4462,13 +4462,13 @@
         <v>637397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4483,13 @@
         <v>697749</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H23" s="7">
         <v>898</v>
@@ -4498,13 +4498,13 @@
         <v>959971</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -4513,19 +4513,19 @@
         <v>1657721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>980</v>
@@ -4534,13 +4534,13 @@
         <v>1032505</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>1042</v>
@@ -4549,13 +4549,13 @@
         <v>1133269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>2022</v>
@@ -4564,19 +4564,19 @@
         <v>2165775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>876</v>
@@ -4585,13 +4585,13 @@
         <v>931863</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>656</v>
@@ -4600,13 +4600,13 @@
         <v>700408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>1532</v>
@@ -4615,19 +4615,19 @@
         <v>1632271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>475</v>
@@ -4636,13 +4636,13 @@
         <v>499038</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>316</v>
@@ -4651,13 +4651,13 @@
         <v>339314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>791</v>
@@ -4666,13 +4666,13 @@
         <v>838351</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4687,13 @@
         <v>3401040</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3274</v>
@@ -4702,13 +4702,13 @@
         <v>3530475</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6459</v>
@@ -4717,13 +4717,13 @@
         <v>6931515</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB5448F-6DC4-4785-998F-92F3783080FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A7FAFC-7935-4C9A-A72B-8C4BBF566853}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4871,13 +4871,13 @@
         <v>74916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -4886,13 +4886,13 @@
         <v>129523</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>193</v>
@@ -4901,13 +4901,13 @@
         <v>204439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4922,13 @@
         <v>147891</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>376</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -4937,13 +4937,13 @@
         <v>263605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M5" s="7">
         <v>386</v>
@@ -4952,19 +4952,19 @@
         <v>411496</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>279</v>
@@ -4973,13 +4973,13 @@
         <v>275830</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>320</v>
@@ -4988,13 +4988,13 @@
         <v>355442</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M6" s="7">
         <v>599</v>
@@ -5003,19 +5003,19 @@
         <v>631272</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>177</v>
@@ -5024,13 +5024,13 @@
         <v>175519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>389</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -5039,13 +5039,13 @@
         <v>194083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M7" s="7">
         <v>351</v>
@@ -5054,19 +5054,19 @@
         <v>369603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>76</v>
@@ -5075,13 +5075,13 @@
         <v>78384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -5090,13 +5090,13 @@
         <v>48990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -5105,13 +5105,13 @@
         <v>127374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5126,13 @@
         <v>752540</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>889</v>
@@ -5141,13 +5141,13 @@
         <v>991644</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1649</v>
@@ -5156,18 +5156,18 @@
         <v>1744184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5179,13 +5179,13 @@
         <v>99330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -5194,13 +5194,13 @@
         <v>148735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>226</v>
@@ -5209,13 +5209,13 @@
         <v>248065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5230,13 @@
         <v>309611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>386</v>
@@ -5245,13 +5245,13 @@
         <v>405033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
@@ -5260,19 +5260,19 @@
         <v>714644</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>419</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>745</v>
@@ -5281,13 +5281,13 @@
         <v>794682</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H12" s="7">
         <v>736</v>
@@ -5296,13 +5296,13 @@
         <v>765955</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>1481</v>
@@ -5311,19 +5311,19 @@
         <v>1560637</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>574</v>
@@ -5332,13 +5332,13 @@
         <v>607415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>479</v>
@@ -5347,13 +5347,13 @@
         <v>497888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>1053</v>
@@ -5362,19 +5362,19 @@
         <v>1105303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>245</v>
@@ -5383,13 +5383,13 @@
         <v>258836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>163</v>
@@ -5398,13 +5398,13 @@
         <v>164144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
@@ -5413,13 +5413,13 @@
         <v>422980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5434,13 @@
         <v>2069875</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1903</v>
@@ -5449,13 +5449,13 @@
         <v>1981755</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3849</v>
@@ -5464,18 +5464,18 @@
         <v>4051629</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5487,13 +5487,13 @@
         <v>42862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5502,13 +5502,13 @@
         <v>43843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -5517,13 +5517,13 @@
         <v>86706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,10 +5541,10 @@
         <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -5553,13 +5553,13 @@
         <v>119287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>199</v>
@@ -5568,19 +5568,19 @@
         <v>211998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>211</v>
@@ -5589,13 +5589,13 @@
         <v>229187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>207</v>
@@ -5604,13 +5604,13 @@
         <v>211338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -5619,19 +5619,19 @@
         <v>440525</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>130</v>
@@ -5640,13 +5640,13 @@
         <v>138050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -5655,13 +5655,13 @@
         <v>125094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -5670,19 +5670,19 @@
         <v>263144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>35</v>
@@ -5691,13 +5691,13 @@
         <v>41027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>373</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -5706,13 +5706,13 @@
         <v>48594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -5721,13 +5721,13 @@
         <v>89621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5742,13 @@
         <v>543838</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -5757,13 +5757,13 @@
         <v>548156</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
@@ -5772,13 +5772,13 @@
         <v>1091994</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5795,13 @@
         <v>217108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>296</v>
@@ -5810,13 +5810,13 @@
         <v>322101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
@@ -5825,13 +5825,13 @@
         <v>539209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>191</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,10 +5849,10 @@
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>734</v>
@@ -5861,13 +5861,13 @@
         <v>787925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>1266</v>
@@ -5876,19 +5876,19 @@
         <v>1338139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1235</v>
@@ -5897,13 +5897,13 @@
         <v>1299700</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>1263</v>
@@ -5912,13 +5912,13 @@
         <v>1332734</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>303</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M24" s="7">
         <v>2498</v>
@@ -5927,19 +5927,19 @@
         <v>2632434</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>881</v>
@@ -5948,13 +5948,13 @@
         <v>920984</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>511</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>770</v>
@@ -5963,13 +5963,13 @@
         <v>817065</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M25" s="7">
         <v>1651</v>
@@ -5978,19 +5978,19 @@
         <v>1738049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>356</v>
@@ -5999,13 +5999,13 @@
         <v>378247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -6014,13 +6014,13 @@
         <v>261728</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>610</v>
@@ -6029,13 +6029,13 @@
         <v>639976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6050,13 @@
         <v>3366253</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3317</v>
@@ -6065,13 +6065,13 @@
         <v>3521554</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6521</v>
@@ -6080,13 +6080,13 @@
         <v>6887807</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BF4864-6FD4-4EE8-B550-468EB51EA27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49BF78DB-6297-420C-A762-93936261FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4019D68-A2D2-49CC-B4E2-48F69BF36FDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F16781E9-7A36-458E-8863-0A1DF76080CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="528">
   <si>
     <t>Población según la frecuencia de consumo de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -76,1540 +76,1552 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,33%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>8,57%</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1A3C5-1821-4168-B1A2-C02706DC0AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334C7C-ED95-4E59-B668-147FD11496DE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2621,13 +2633,13 @@
         <v>385533</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>893</v>
@@ -2636,13 +2648,13 @@
         <v>914682</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2669,13 @@
         <v>470985</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -2672,13 +2684,13 @@
         <v>151170</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>621</v>
@@ -2687,13 +2699,13 @@
         <v>622155</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,7 +2761,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2761,13 +2773,13 @@
         <v>37561</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2776,13 +2788,13 @@
         <v>37660</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -2791,13 +2803,13 @@
         <v>75220</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2824,13 @@
         <v>76692</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -2827,13 +2839,13 @@
         <v>75166</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -2842,13 +2854,13 @@
         <v>151858</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2875,13 @@
         <v>192890</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>202</v>
@@ -2878,13 +2890,13 @@
         <v>214451</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
@@ -2893,13 +2905,13 @@
         <v>407341</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2926,13 @@
         <v>171902</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -2929,13 +2941,13 @@
         <v>112185</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>273</v>
@@ -2944,13 +2956,13 @@
         <v>284087</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2977,13 @@
         <v>72364</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -2980,13 +2992,13 @@
         <v>36950</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -2995,13 +3007,13 @@
         <v>109314</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3081,13 @@
         <v>171703</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -3084,10 +3096,10 @@
         <v>276358</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>157</v>
@@ -3168,7 +3180,7 @@
         <v>1005</v>
       </c>
       <c r="D24" s="7">
-        <v>1023584</v>
+        <v>1023585</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>170</v>
@@ -3252,13 +3264,13 @@
         <v>1809627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3285,13 @@
         <v>690777</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>323</v>
@@ -3288,13 +3300,13 @@
         <v>321716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>1014</v>
@@ -3303,13 +3315,13 @@
         <v>1012493</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,7 +3333,7 @@
         <v>3207</v>
       </c>
       <c r="D27" s="7">
-        <v>3268954</v>
+        <v>3268955</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3351,7 +3363,7 @@
         <v>6494</v>
       </c>
       <c r="N27" s="7">
-        <v>6638285</v>
+        <v>6638284</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3365,7 +3377,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429F361F-4708-4443-A5D2-CE886EC822C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E28360A-D85B-47D2-9E81-CD30A663DD05}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,7 +3413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3508,13 +3520,13 @@
         <v>95809</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -3523,13 +3535,13 @@
         <v>203826</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -3538,13 +3550,13 @@
         <v>299634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3571,13 @@
         <v>268921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -3574,13 +3586,13 @@
         <v>420585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>645</v>
@@ -3589,13 +3601,13 @@
         <v>689506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3622,13 @@
         <v>286189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>366</v>
@@ -3625,13 +3637,13 @@
         <v>395915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M6" s="7">
         <v>637</v>
@@ -3640,13 +3652,13 @@
         <v>682104</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3673,13 @@
         <v>215458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>187</v>
@@ -3676,13 +3688,13 @@
         <v>204159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>385</v>
@@ -3691,13 +3703,13 @@
         <v>419617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3724,13 @@
         <v>96721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -3727,13 +3739,13 @@
         <v>99770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -3742,13 +3754,13 @@
         <v>196492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3828,13 @@
         <v>115582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -3831,13 +3843,13 @@
         <v>152697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -3846,13 +3858,13 @@
         <v>268279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3879,13 @@
         <v>323444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -3882,13 +3894,13 @@
         <v>421004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -3897,13 +3909,13 @@
         <v>744448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3930,13 @@
         <v>595111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>525</v>
@@ -3933,13 +3945,13 @@
         <v>572063</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M12" s="7">
         <v>1094</v>
@@ -3948,13 +3960,13 @@
         <v>1167174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3981,13 @@
         <v>574620</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>388</v>
@@ -3984,13 +3996,13 @@
         <v>408069</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>936</v>
@@ -3999,13 +4011,13 @@
         <v>982689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4032,13 @@
         <v>349949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -4035,13 +4047,13 @@
         <v>196860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>518</v>
@@ -4050,13 +4062,13 @@
         <v>546809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,7 +4124,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4124,13 +4136,13 @@
         <v>28494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4139,13 +4151,13 @@
         <v>40989</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4154,13 +4166,13 @@
         <v>69483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4187,13 @@
         <v>105384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -4190,13 +4202,13 @@
         <v>118382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -4205,13 +4217,13 @@
         <v>223766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4238,13 @@
         <v>151205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>151</v>
@@ -4241,13 +4253,13 @@
         <v>165291</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>291</v>
@@ -4256,13 +4268,13 @@
         <v>316497</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4289,13 @@
         <v>141785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -4292,13 +4304,13 @@
         <v>88180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -4307,13 +4319,13 @@
         <v>229965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4340,13 @@
         <v>52367</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -4343,13 +4355,13 @@
         <v>42683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -4358,13 +4370,13 @@
         <v>95050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4444,13 @@
         <v>239885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>362</v>
@@ -4447,13 +4459,13 @@
         <v>397512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>582</v>
@@ -4462,13 +4474,13 @@
         <v>637397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4495,13 @@
         <v>697749</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>898</v>
@@ -4498,13 +4510,13 @@
         <v>959971</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -4513,13 +4525,13 @@
         <v>1657721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4546,13 @@
         <v>1032505</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>1042</v>
@@ -4549,13 +4561,13 @@
         <v>1133269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>2022</v>
@@ -4564,13 +4576,13 @@
         <v>2165775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4597,13 @@
         <v>931863</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H25" s="7">
         <v>656</v>
@@ -4600,13 +4612,13 @@
         <v>700408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>1532</v>
@@ -4615,13 +4627,13 @@
         <v>1632271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4648,13 @@
         <v>499038</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="H26" s="7">
         <v>316</v>
@@ -4651,13 +4663,13 @@
         <v>339314</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>791</v>
@@ -4666,10 +4678,10 @@
         <v>838351</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>366</v>
@@ -4728,7 +4740,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A7FAFC-7935-4C9A-A72B-8C4BBF566853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE039E3E-444D-4642-A6F3-3B160E8ECE76}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4874,10 +4886,10 @@
         <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -4886,13 +4898,13 @@
         <v>129523</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>193</v>
@@ -4901,13 +4913,13 @@
         <v>204439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4934,13 @@
         <v>147891</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -4937,13 +4949,13 @@
         <v>263605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>386</v>
@@ -4952,13 +4964,13 @@
         <v>411496</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4985,13 @@
         <v>275830</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>320</v>
@@ -4988,13 +5000,13 @@
         <v>355442</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M6" s="7">
         <v>599</v>
@@ -5003,13 +5015,13 @@
         <v>631272</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5036,13 @@
         <v>175519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -5039,13 +5051,13 @@
         <v>194083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>351</v>
@@ -5054,13 +5066,13 @@
         <v>369603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5087,13 @@
         <v>78384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -5090,13 +5102,13 @@
         <v>48990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -5105,13 +5117,13 @@
         <v>127374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5191,13 @@
         <v>99330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -5194,13 +5206,13 @@
         <v>148735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>226</v>
@@ -5209,13 +5221,13 @@
         <v>248065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5242,13 @@
         <v>309611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H11" s="7">
         <v>386</v>
@@ -5245,28 +5257,28 @@
         <v>405033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
       </c>
       <c r="N11" s="7">
-        <v>714644</v>
+        <v>714645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>422</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5293,13 @@
         <v>794682</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H12" s="7">
         <v>736</v>
@@ -5296,13 +5308,13 @@
         <v>765955</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>1481</v>
@@ -5311,13 +5323,13 @@
         <v>1560637</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5344,13 @@
         <v>607415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>479</v>
@@ -5347,13 +5359,13 @@
         <v>497888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>1053</v>
@@ -5362,13 +5374,13 @@
         <v>1105303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5395,13 @@
         <v>258836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>163</v>
@@ -5398,13 +5410,13 @@
         <v>164144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
@@ -5413,13 +5425,13 @@
         <v>422980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5473,7 @@
         <v>3849</v>
       </c>
       <c r="N15" s="7">
-        <v>4051629</v>
+        <v>4051630</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5475,7 +5487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5487,13 +5499,13 @@
         <v>42862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5502,13 +5514,13 @@
         <v>43843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -5517,13 +5529,13 @@
         <v>86706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,10 +5553,10 @@
         <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -5553,13 +5565,13 @@
         <v>119287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>199</v>
@@ -5568,13 +5580,13 @@
         <v>211998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5601,13 @@
         <v>229187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H18" s="7">
         <v>207</v>
@@ -5604,13 +5616,13 @@
         <v>211338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -5619,13 +5631,13 @@
         <v>440525</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5652,13 @@
         <v>138050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -5655,13 +5667,13 @@
         <v>125094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -5670,13 +5682,13 @@
         <v>263144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5703,13 @@
         <v>41027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>373</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -5706,13 +5718,13 @@
         <v>48594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -5721,13 +5733,13 @@
         <v>89621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5807,13 @@
         <v>217108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>296</v>
@@ -5810,13 +5822,13 @@
         <v>322101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
@@ -5825,13 +5837,13 @@
         <v>539209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5858,13 @@
         <v>550214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>734</v>
@@ -5861,13 +5873,13 @@
         <v>787925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
         <v>1266</v>
@@ -5876,13 +5888,13 @@
         <v>1338139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5909,13 @@
         <v>1299700</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H24" s="7">
         <v>1263</v>
@@ -5912,13 +5924,13 @@
         <v>1332734</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M24" s="7">
         <v>2498</v>
@@ -5927,13 +5939,13 @@
         <v>2632434</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5960,13 @@
         <v>920984</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="H25" s="7">
         <v>770</v>
@@ -5963,13 +5975,13 @@
         <v>817065</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>1651</v>
@@ -5978,13 +5990,13 @@
         <v>1738049</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6011,13 @@
         <v>378247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -6014,13 +6026,13 @@
         <v>261728</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>610</v>
@@ -6029,13 +6041,13 @@
         <v>639976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>522</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6103,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49BF78DB-6297-420C-A762-93936261FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48276C99-2B9C-4E1A-82EE-64B483815E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F16781E9-7A36-458E-8863-0A1DF76080CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0ACBDE0-29A1-444F-8F50-B7AFF2E7B491}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2033,7 +2033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C334C7C-ED95-4E59-B668-147FD11496DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B4469-EE8C-4D12-83D4-58B118DBAB63}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3363,7 +3363,7 @@
         <v>6494</v>
       </c>
       <c r="N27" s="7">
-        <v>6638284</v>
+        <v>6638285</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3396,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E28360A-D85B-47D2-9E81-CD30A663DD05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845240DD-90F0-4CA8-9267-9C49C1216DB8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3978,7 +3978,7 @@
         <v>548</v>
       </c>
       <c r="D13" s="7">
-        <v>574620</v>
+        <v>574619</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>271</v>
@@ -4080,7 +4080,7 @@
         <v>1851</v>
       </c>
       <c r="D15" s="7">
-        <v>1958706</v>
+        <v>1958705</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4759,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE039E3E-444D-4642-A6F3-3B160E8ECE76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6EB66-C06C-4114-85B5-7540A8031EA0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5269,7 +5269,7 @@
         <v>681</v>
       </c>
       <c r="N11" s="7">
-        <v>714645</v>
+        <v>714644</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>425</v>
@@ -5473,7 +5473,7 @@
         <v>3849</v>
       </c>
       <c r="N15" s="7">
-        <v>4051630</v>
+        <v>4051629</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
